--- a/biology/Zoologie/Cuora_trifasciata/Cuora_trifasciata.xlsx
+++ b/biology/Zoologie/Cuora_trifasciata/Cuora_trifasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuora trifasciata ou Tortue-boîte chinoise à trois rayures est une espèce de tortues de la famille des Geoemydidae[1]. Cette espèce est aujourd'hui proche de l'extinction[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuora trifasciata ou Tortue-boîte chinoise à trois rayures est une espèce de tortues de la famille des Geoemydidae. Cette espèce est aujourd'hui proche de l'extinction.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre seulement dans quelques endroits en Chine dans les provinces du Fujian, du Guangdong, du Guangxi, du Hainan et à Hong Kong, au Viêt Nam[1] et au Laos.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre seulement dans quelques endroits en Chine dans les provinces du Fujian, du Guangdong, du Guangxi, du Hainan et à Hong Kong, au Viêt Nam et au Laos.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est plutôt aquatique, aux couleurs jaune et marron, avec des striures sur la dossière. Elle est en cours de disparition dans la nature.
 </t>
@@ -573,7 +589,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La tortue-boîte chinoise à trois rayures mange de petits animaux aquatiques vivants et des charognes.
 </t>
@@ -604,11 +622,13 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Union internationale pour la conservation de la nature classe l'espèce en catégorie CR (en danger critique) dans la liste rouge des espèces menacées. 
-La cuora trifasciata est très appréciée pour ses effets thérapeutiques supposés ou comme animal de compagnie, ce qui a pour conséquence le déclin de 95 % du nombre d'individus de cette espèce en à peine 65 ans[3].
-On l'appelle souvent la "tortue en or" pour le prix très élevé qu'elle peut atteindre dans le commerce illégal[4].
+La cuora trifasciata est très appréciée pour ses effets thérapeutiques supposés ou comme animal de compagnie, ce qui a pour conséquence le déclin de 95 % du nombre d'individus de cette espèce en à peine 65 ans.
+On l'appelle souvent la "tortue en or" pour le prix très élevé qu'elle peut atteindre dans le commerce illégal.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bell, 1825 : A monograph of the tortoises having a moveable sternum, with remarks on their arrangement and affinities. Zoological Journal London, vol. 2, p. 299-310 (texte intégral).</t>
         </is>
